--- a/src/test/resources/GroceryTestData.xlsx
+++ b/src/test/resources/GroceryTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpa\eclipse-workspace\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D998B64-1382-458E-88DD-BC353D768D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483BC1F-0083-427E-8C10-55C95C4F5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="UserTypePage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>kusumam</t>
   </si>
@@ -34,6 +35,18 @@
   </si>
   <si>
     <t>kusu</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Delivery Boy</t>
   </si>
 </sst>
 </file>
@@ -353,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -397,4 +410,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B181077-1DD4-4AD2-96F7-C64905F63E1A}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/GroceryTestData.xlsx
+++ b/src/test/resources/GroceryTestData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpa\eclipse-workspace\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483BC1F-0083-427E-8C10-55C95C4F5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE372D7F-C182-48D0-8138-28224DCF4530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="UserTypePage" sheetId="2" r:id="rId2"/>
+    <sheet name="UserNamePage" sheetId="4" r:id="rId2"/>
+    <sheet name="UserTypePage" sheetId="2" r:id="rId3"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>kusumam</t>
   </si>
@@ -47,6 +49,33 @@
   </si>
   <si>
     <t>Delivery Boy</t>
+  </si>
+  <si>
+    <t>Sample TestNews</t>
+  </si>
+  <si>
+    <t>Tiger biscuits packet Damage</t>
+  </si>
+  <si>
+    <t>Selenium classes so good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample TestNews demo </t>
+  </si>
+  <si>
+    <t>izabella.cruickshank</t>
+  </si>
+  <si>
+    <t>trent.nader</t>
+  </si>
+  <si>
+    <t>thalia.reilly</t>
+  </si>
+  <si>
+    <t>helena.romaguera</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
 </sst>
 </file>
@@ -413,11 +442,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F16AFF-6F98-4FDA-97F0-314892F3DAE3}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B181077-1DD4-4AD2-96F7-C64905F63E1A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,4 +527,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F906CD5-8E82-45C0-B748-196541FBE48D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/GroceryTestData.xlsx
+++ b/src/test/resources/GroceryTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpa\eclipse-workspace\GroceryApplication\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpa\git\GroceryProject\GroceryApplication\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE372D7F-C182-48D0-8138-28224DCF4530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B9C37-550C-4277-A29E-891596FF20B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1836" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B181077-1DD4-4AD2-96F7-C64905F63E1A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F906CD5-8E82-45C0-B748-196541FBE48D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
